--- a/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_latest_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_latest_since_2021_GVA.xlsx
@@ -513,13 +513,13 @@
         <v>0.3697723389636486</v>
       </c>
       <c r="F2">
-        <v>-0.1017739221272598</v>
+        <v>-0.09227724596391218</v>
       </c>
       <c r="G2">
-        <v>0.6177284894259836</v>
+        <v>0.59885968558209</v>
       </c>
       <c r="H2">
-        <v>-0.1439321513002358</v>
+        <v>-0.1344222390317647</v>
       </c>
       <c r="I2">
         <v>0.3507537532907124</v>
@@ -539,13 +539,13 @@
         <v>1.013705242318287</v>
       </c>
       <c r="E3">
-        <v>-0.1020615912878142</v>
+        <v>-0.09256491512446657</v>
       </c>
       <c r="F3">
-        <v>0.6220537245256811</v>
+        <v>0.6031849206817876</v>
       </c>
       <c r="G3">
-        <v>-0.146228903134796</v>
+        <v>-0.1367189908663249</v>
       </c>
       <c r="H3">
         <v>0.3498959957208492</v>
@@ -562,28 +562,28 @@
         <v>0.8133123389636332</v>
       </c>
       <c r="D4">
-        <v>1.07120607787274</v>
+        <v>1.080702754036088</v>
       </c>
       <c r="E4">
-        <v>1.330498489425983</v>
+        <v>1.31162968558209</v>
       </c>
       <c r="F4">
-        <v>0.1331678486997642</v>
+        <v>0.1426777609682353</v>
       </c>
       <c r="G4">
         <v>0.4147837532907124</v>
       </c>
       <c r="H4">
-        <v>0.645193536264559</v>
+        <v>0.6545885005636995</v>
       </c>
       <c r="I4">
-        <v>0.976209563331129</v>
+        <v>0.9574136955291455</v>
       </c>
       <c r="J4">
-        <v>0.0294945848375473</v>
+        <v>0.03901111427756548</v>
       </c>
       <c r="K4">
-        <v>-0.7003840682787992</v>
+        <v>-0.6909009009009035</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,28 +594,28 @@
         <v>-1.026687661036342</v>
       </c>
       <c r="C5">
-        <v>-0.5987939221272598</v>
+        <v>-0.5892972459639122</v>
       </c>
       <c r="D5">
-        <v>2.500498489425983</v>
+        <v>2.48162968558209</v>
       </c>
       <c r="E5">
-        <v>1.173167848699764</v>
+        <v>1.182677760968235</v>
       </c>
       <c r="F5">
         <v>0.7347837532907124</v>
       </c>
       <c r="G5">
-        <v>0.915193536264559</v>
+        <v>0.9245885005636996</v>
       </c>
       <c r="H5">
-        <v>1.046209563331129</v>
+        <v>1.027413695529146</v>
       </c>
       <c r="I5">
-        <v>0.07949458483754732</v>
+        <v>0.0890111142775655</v>
       </c>
       <c r="J5">
-        <v>-0.6503840682787991</v>
+        <v>-0.6409009009009035</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1235083742169163</v>
+        <v>-0.1140116980535687</v>
       </c>
       <c r="C6">
-        <v>1.152896657993582</v>
+        <v>1.134027854149689</v>
       </c>
       <c r="D6">
-        <v>0.5198319947059412</v>
+        <v>0.5293419069744123</v>
       </c>
       <c r="E6">
         <v>1.034669590998859</v>
       </c>
       <c r="F6">
-        <v>1.275960098981875</v>
+        <v>1.285355063281015</v>
       </c>
       <c r="G6">
-        <v>1.463036736737924</v>
+        <v>1.444240868935941</v>
       </c>
       <c r="H6">
-        <v>0.3030311949055167</v>
+        <v>0.3125477243455349</v>
       </c>
       <c r="I6">
-        <v>-0.5643348075270529</v>
+        <v>-0.5548516401491572</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,25 +652,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.5404984894259834</v>
+        <v>0.52162968558209</v>
       </c>
       <c r="C7">
-        <v>0.5936514574330062</v>
+        <v>0.6031613697014773</v>
       </c>
       <c r="D7">
         <v>1.324783753290712</v>
       </c>
       <c r="E7">
-        <v>1.425193536264559</v>
+        <v>1.4345885005637</v>
       </c>
       <c r="F7">
-        <v>1.56595691972167</v>
+        <v>1.547161051919687</v>
       </c>
       <c r="G7">
-        <v>0.4370957899150033</v>
+        <v>0.4466123193550214</v>
       </c>
       <c r="H7">
-        <v>-0.4903840682787992</v>
+        <v>-0.4809009009009035</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,31 +678,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.5368321513002358</v>
+        <v>-0.5273222390317647</v>
       </c>
       <c r="C8">
         <v>-0.2552162467092876</v>
       </c>
       <c r="D8">
-        <v>-0.01480646373544103</v>
+        <v>-0.005411499436300538</v>
       </c>
       <c r="E8">
-        <v>0.726209563331129</v>
+        <v>0.7074136955291455</v>
       </c>
       <c r="F8">
-        <v>0.2994945848375473</v>
+        <v>0.3090111142775654</v>
       </c>
       <c r="G8">
-        <v>-0.4303840682787992</v>
+        <v>-0.4209009009009035</v>
       </c>
       <c r="H8">
-        <v>1.271206653510011</v>
+        <v>1.271278195488724</v>
       </c>
       <c r="I8">
-        <v>0.6409848484848366</v>
+        <v>0.6220589070934801</v>
       </c>
       <c r="J8">
-        <v>0.8099136868064123</v>
+        <v>0.8193626707131937</v>
       </c>
       <c r="K8">
         <v>0.696085300837782</v>
@@ -716,25 +716,25 @@
         <v>-0.3652162467092876</v>
       </c>
       <c r="C9">
-        <v>-0.004806463735441024</v>
+        <v>0.004588500563699471</v>
       </c>
       <c r="D9">
-        <v>0.7957411917471162</v>
+        <v>0.7769453239451327</v>
       </c>
       <c r="E9">
-        <v>0.3712350743855003</v>
+        <v>0.3807516038255184</v>
       </c>
       <c r="F9">
-        <v>-0.4083005991830762</v>
+        <v>-0.3988174318051805</v>
       </c>
       <c r="G9">
-        <v>1.1805038570814</v>
+        <v>1.180575399060113</v>
       </c>
       <c r="H9">
-        <v>0.5267015792327423</v>
+        <v>0.5077756378413858</v>
       </c>
       <c r="I9">
-        <v>0.669286478569304</v>
+        <v>0.6787354624760854</v>
       </c>
       <c r="J9">
         <v>0.52058802116979</v>
@@ -745,25 +745,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.1773155788492672</v>
+        <v>0.1867105431484077</v>
       </c>
       <c r="C10">
-        <v>0.7910738291059018</v>
+        <v>0.7722779613039183</v>
       </c>
       <c r="D10">
-        <v>0.2748392741808819</v>
+        <v>0.2843558036209001</v>
       </c>
       <c r="E10">
-        <v>-0.3490102467777492</v>
+        <v>-0.3395270793998535</v>
       </c>
       <c r="F10">
-        <v>1.2876026381609</v>
+        <v>1.287674180139613</v>
       </c>
       <c r="G10">
-        <v>0.5866956054096657</v>
+        <v>0.5677696640183092</v>
       </c>
       <c r="H10">
-        <v>0.6581035370339656</v>
+        <v>0.6675525209407469</v>
       </c>
       <c r="I10">
         <v>0.5067171635883239</v>
@@ -774,22 +774,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8468573965097093</v>
+        <v>0.8280615287077258</v>
       </c>
       <c r="C11">
-        <v>-0.0005054151624526992</v>
+        <v>0.009011114277565485</v>
       </c>
       <c r="D11">
-        <v>-0.4903840682787992</v>
+        <v>-0.4809009009009035</v>
       </c>
       <c r="E11">
-        <v>1.261206653510011</v>
+        <v>1.261278195488724</v>
       </c>
       <c r="F11">
-        <v>0.6209848484848366</v>
+        <v>0.6020589070934801</v>
       </c>
       <c r="G11">
-        <v>0.6999136868064123</v>
+        <v>0.7093626707131937</v>
       </c>
       <c r="H11">
         <v>0.606085300837782</v>
@@ -800,28 +800,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.3605054151624527</v>
+        <v>-0.3509888857224345</v>
       </c>
       <c r="C12">
-        <v>-0.5903840682787991</v>
+        <v>-0.5809009009009034</v>
       </c>
       <c r="D12">
-        <v>1.241206653510011</v>
+        <v>1.241278195488724</v>
       </c>
       <c r="E12">
-        <v>0.7221325429898751</v>
+        <v>0.7032066015985186</v>
       </c>
       <c r="F12">
-        <v>0.8730945811478812</v>
+        <v>0.8825435650546625</v>
       </c>
       <c r="G12">
         <v>0.6567688549060375</v>
       </c>
       <c r="H12">
-        <v>-0.2314826568661629</v>
+        <v>-0.1837499599687909</v>
       </c>
       <c r="I12">
-        <v>0.4581899536236866</v>
+        <v>0.3538112635634896</v>
+      </c>
+      <c r="J12">
+        <v>0.1485032540344368</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,25 +832,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.8663840682787991</v>
+        <v>-0.8569009009009034</v>
       </c>
       <c r="C13">
-        <v>1.05517799831865</v>
+        <v>1.055249540297363</v>
       </c>
       <c r="D13">
-        <v>0.5612212967252712</v>
+        <v>0.5422953553339147</v>
       </c>
       <c r="E13">
-        <v>0.8090882866159738</v>
+        <v>0.8185372705227552</v>
       </c>
       <c r="F13">
         <v>0.7162146587346183</v>
       </c>
       <c r="G13">
-        <v>-0.1636993409534001</v>
+        <v>-0.115966644056028</v>
       </c>
       <c r="H13">
-        <v>0.4993544712360053</v>
+        <v>0.3949757811758082</v>
+      </c>
+      <c r="I13">
+        <v>0.1734537503564907</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,22 +861,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6786966130465069</v>
+        <v>0.6787681550252201</v>
       </c>
       <c r="C14">
-        <v>0.375342709733125</v>
+        <v>0.3564167683417685</v>
       </c>
       <c r="D14">
-        <v>0.8812702358992788</v>
+        <v>0.8907192198060601</v>
       </c>
       <c r="E14">
         <v>0.8080775651369163</v>
       </c>
       <c r="F14">
-        <v>-0.1194422829219092</v>
+        <v>-0.0717095860245372</v>
       </c>
       <c r="G14">
-        <v>0.5498872108380217</v>
+        <v>0.4455085207778247</v>
+      </c>
+      <c r="H14">
+        <v>0.2422520263583712</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,19 +887,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4192373704423668</v>
+        <v>0.4003114290510102</v>
       </c>
       <c r="C15">
-        <v>0.7999136868064123</v>
+        <v>0.8093626707131937</v>
       </c>
       <c r="D15">
         <v>0.796085300837782</v>
       </c>
       <c r="E15">
-        <v>-0.1032458233890247</v>
+        <v>-0.05551312649165269</v>
       </c>
       <c r="F15">
-        <v>0.5893544712360053</v>
+        <v>0.4849757811758083</v>
+      </c>
+      <c r="G15">
+        <v>0.2534537503564908</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,19 +910,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3227381615814686</v>
+        <v>0.33218714548825</v>
       </c>
       <c r="C16">
         <v>0.486085300837782</v>
       </c>
       <c r="D16">
-        <v>-0.2502458233890247</v>
+        <v>-0.2025131264916527</v>
       </c>
       <c r="E16">
-        <v>0.6193544712360053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.5149757811758082</v>
+      </c>
+      <c r="F16">
+        <v>0.381103329907261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -918,34 +933,46 @@
         <v>0.4903150813867297</v>
       </c>
       <c r="C17">
-        <v>-0.3634817146037363</v>
+        <v>-0.3157490177063643</v>
       </c>
       <c r="D17">
-        <v>0.3498282003904753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.2454495103302783</v>
+      </c>
+      <c r="E17">
+        <v>0.04235042473292953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.3238086659744113</v>
+        <v>-0.2760759690770392</v>
       </c>
       <c r="C18">
-        <v>0.4001948507169847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.2958161606567877</v>
+      </c>
+      <c r="D18">
+        <v>0.07961008106920435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2465333054190486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1421546153588515</v>
+      </c>
+      <c r="C19">
+        <v>0.02893023050567838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.02940328597706714</v>
       </c>
     </row>
   </sheetData>
